--- a/students_data.xlsx
+++ b/students_data.xlsx
@@ -744,16 +744,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Аннааа</t>
+          <t>Анн</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Барышеваааа</t>
+          <t>Барышева</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -765,23 +765,23 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Анн</t>
+          <t>Олег</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Барышева</t>
+          <t>Людин</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>602</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/students_data.xlsx
+++ b/students_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -681,106 +681,127 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Александра</t>
+          <t>Алина</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Махаева</t>
+          <t>Левданская</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>123</v>
+        <v>602</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Алина</t>
+          <t>ВалерияЯ</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Левданская</t>
+          <t>Сандлер</t>
         </is>
       </c>
       <c r="D14" t="n">
         <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>602</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ВалерияЯ</t>
+          <t>Анн</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Сандлер</t>
+          <t>Барышева</t>
         </is>
       </c>
       <c r="D15" t="n">
         <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>222</v>
+        <v>602</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Анн</t>
+          <t>Валерия</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Барышева</t>
+          <t>Сандлер</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v>602</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
+        <v>40</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>тестадмин</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ТестАдмин</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E17" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
         <v>37</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>Олег</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Людин</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D18" t="n">
         <v>2</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E18" t="n">
         <v>123</v>
       </c>
     </row>
